--- a/biology/Mycologie/Candida_(genre)/Candida_(genre).xlsx
+++ b/biology/Mycologie/Candida_(genre)/Candida_(genre).xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Candida est un genre de levures (dont l’espèce la plus importante est Candida albicans) qui est répandu dans tout le monde habité et forme normalement un commensal parfaitement toléré par l'homme sain dans la bouche, sur la peau, dans le système digestif et dans la flore vaginale, en fonction des espèces. Champignon pathogène, il provoque parfois des mycoses (candidiase ou candidose) chez les humains et d'autres animaux quand l'organisme est affaibli.
-Au laboratoire médical, la culture en boîte de Petri des Candida donne des colonies qui sont grandes, rondes, de couleur blanche ou crème (d'où le choix par Christine Marie Berkhout du terme latin candidus qui signifie « blanc brillant »)[1]. C'est un champignon unicellulaire qui se trouve dans le tube digestif et dans la bouche de la plupart des humains. Il ne provoque cependant aucune pathologie chez les individus ayant un système immunitaire normal.
+Au laboratoire médical, la culture en boîte de Petri des Candida donne des colonies qui sont grandes, rondes, de couleur blanche ou crème (d'où le choix par Christine Marie Berkhout du terme latin candidus qui signifie « blanc brillant »). C'est un champignon unicellulaire qui se trouve dans le tube digestif et dans la bouche de la plupart des humains. Il ne provoque cependant aucune pathologie chez les individus ayant un système immunitaire normal.
 Il peut se trouver sous plusieurs formes : levure, pseudohyphe ou hyphe.
 Les espèces de Candida peuvent provoquer des infections assez bénignes, comme le muguet buccal chez l'enfant ou la candidose vulvo-vaginale chez la femme. Chez les patients dont le système immunitaire est affaibli, par exemple les patients recevant une chimiothérapie contre le cancer ou les patients atteint par le SIDA, les Candida peuvent provoquer des infections plus graves, comme des septicémies ou des candidoses digestives.
 Dans l'immense majorité des cas pathologiques, c'est Candida albicans qui est en cause, mais sont également importants : Candida pseudotropicalis, cosmopolite comme le premier, Candida tropicalis plus fréquemment à l'origine des candidoses des zones intertropicales chaudes et humides, Candida parapsilosis et Candida guillermondii.
@@ -515,7 +527,9 @@
           <t>Morphologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Dans les prélèvements pathologiques, les candida se présentent toujours comme de petites levures rondes ou ovalaires de 2 à 4 microns, bourgeonnantes, souvent accompagnées de filaments mycéliens ou pseudo-mycéliens.
 En culture sur milieu de Sabouraud, on obtient en 24 ou 48 heures des colonies blanches, crémeuses, brillantes, ne contenant que la forme levure ; sur milieu P.C.B. ou R.A.T., on obtient du pseudo-mycélium, et, pour C. albicans, des chlamydospores.
@@ -547,7 +561,9 @@
           <t>Génétique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Candida est l'une des variantes du code génétique (avec la mitochondrie) c'est-à-dire que l'universalité du code génétique ne s'applique pas pour cette levure.
 </t>
@@ -578,7 +594,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Les candida se multiplient activement en milieu nettement acide, de pH 2 à pH 6, mais peuvent survivre jusqu'à pH 9.[réf. nécessaire]
 C. albicans est un saprophyte strict des muqueuses intestinales et vaginales (la peau n'est pas son habitat naturel, sa présence est donc associée à un risque plus élevé de contamination) ; dans toute autre localisation, il est considéré comme pathogène. Il ne le deviendra dans le tube digestif que s'il a l'occasion de proliférer.
@@ -617,10 +635,12 @@
           <t>Espèces</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Outre Candida albicans, qui est un constituant normal des microbiotes humains cutané, gastrointestinal et urogénital, différentes espèces de Candida peuvent être responsables d'infections appelées candidémies[2]. On observe une incidence croissante d'infections causées par C. glabrata et C. rugosa, vraisemblablement du fait d'une moindre sensibilité au groupe des azoles, l'antifongique actuellement utilisé[3]. Parmi les pathogènes les plus importants, se trouvent C. parapsilosis, C. tropicalis, C. dubliniensis (en)[4] et plus récemment C. auris[5].
-Selon MycoBank                                            (23 novembre 2023)[6] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Outre Candida albicans, qui est un constituant normal des microbiotes humains cutané, gastrointestinal et urogénital, différentes espèces de Candida peuvent être responsables d'infections appelées candidémies. On observe une incidence croissante d'infections causées par C. glabrata et C. rugosa, vraisemblablement du fait d'une moindre sensibilité au groupe des azoles, l'antifongique actuellement utilisé. Parmi les pathogènes les plus importants, se trouvent C. parapsilosis, C. tropicalis, C. dubliniensis (en) et plus récemment C. auris.
+Selon MycoBank                                            (23 novembre 2023) :
 C. aaseri Dietrichson ex Uden &amp; Buckley, 1970
 C. abietophila Kurtzman, 2006
 C. accraensis (Macfie &amp; Ingram) Basgal, 1931
@@ -735,7 +755,7 @@
 Candida capsuligena (Van der Walt &amp; Kerken) Uden &amp; H.R. Buckley, 1970
 Candida cariosilignicola J.D. Lee &amp; Komag., 1980
 Candida carpophila (Phaff &amp; M.W. Mill.) Vaughan-Mart., Kurtzman, S.A. Mey. &amp; E.B. O'Neill, 2005
-Candida carvajalis James et al., 2009[7]
+Candida carvajalis James et al., 2009
 Candida caryicola Kurtzman, 2001
 Candida caseinolytica Phaff, Starmer, Lachance &amp; Ganter, 1994
 Candida castellanii Uden &amp; Assis-Lopes, 1953
@@ -1226,7 +1246,7 @@
 Candida terebra Sugiy. &amp; Goto, 1969
 Candida terraborum S.O. Suh &amp; M. Blackw., 2004
 Candida tetrigidarum S.O. Suh, N.H. Nguyen &amp; M. Blackw., 2008
-Candida theae Chang et al., 2012[8]
+Candida theae Chang et al., 2012
 Candida tibetensis F.Y. Bai &amp; Z.W. Wu, 2006
 Candida tocantinensis Barbosa et al., 2012
 Candida tocantinsensis Barbosaet al., 2011
@@ -1245,7 +1265,8 @@
 Candida ulmi Kurtzman, 2000
 Candida utilis (Henneberg) Lodder &amp; Kreger, 1952
 Candida vaccinii Tokuoka, Ishit., Goto &amp; Komag., 1987
-Candida vadensis Middelhoven &amp;</t>
+Candida vadensis Middelhoven &amp; Kurtzman, 2007
+Candi</t>
         </is>
       </c>
     </row>
@@ -1273,10 +1294,12 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Le nom correct complet (avec auteur) de ce taxon est Candida Berkhout, 1923[6].
-Candida a pour synonymes[6] :
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le nom correct complet (avec auteur) de ce taxon est Candida Berkhout, 1923.
+Candida a pour synonymes :
 Azymocandida E.K. Novák &amp; Zsolt, 1961
 Azymoprocandida E.K. Novák &amp; Zsolt, 1961
 Candida Berkhout, 1923
